--- a/t/data/stock/vector_upload_with_uniquename.xlsx
+++ b/t/data/stock/vector_upload_with_uniquename.xlsx
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t xml:space="preserve">uniquename </t>
   </si>
   <si>
-    <t xml:space="preserve">species_name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Strain</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Vector-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manihot esculenta</t>
   </si>
   <si>
     <t xml:space="preserve">DH5 </t>
@@ -236,16 +230,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,90 +281,81 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
